--- a/similarities/split_global/harmonic_similarity_timestamps_24.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'F']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:7/C', 'D#:maj/A#']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:53.673000', '0:01:00.522000')]</t>
+          <t>('0:00:14.420000', '0:00:49.560000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:55.780000', '0:01:02.360000')]</t>
+          <t>('0:00:41.780000', '0:00:50.420000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=53.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=14.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=55.78']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=41.78</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:26.160000', '0:00:36.860000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:21.680000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.060000', '0:00:20.600000')]</t>
+          <t>('0:00:00.780000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:12.420000', '0:02:42.760000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:46.120000')]</t>
+          <t>('0:00:10.360000', '0:00:18.440000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=132.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C']]</t>
+          <t>['C:7', 'F:min7', 'Db:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['C:7', 'F:min7', 'Db:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:51.641107', '0:00:57.139232')]</t>
+          <t>('0:01:27.640000', '0:01:32.510000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:06.950000', '0:00:14.410000')]</t>
+          <t>('0:02:08.560000', '0:02:10.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=87.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=128.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:16.360000', '0:00:22.660000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=16.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:25.120000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:08.180000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:32.400000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:01:08.980000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:maj', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Ab', 'F:7', 'Bb:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:01:16.740000', '0:01:20.340000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:01:47.280000', '0:01:52.640000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=76.74</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=107.28</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:7', 'C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:7', 'G', 'C:7', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:04.100000', '0:00:09.230000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:43.320000', '0:00:50.490000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=4.1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=43.32</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:35.680000')]</t>
+          <t>('0:00:24.260000', '0:00:27.200000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:54.780000', '0:00:57.520000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-30#t=24.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=54.78</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['G:hdim7/C#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:01:49.380000', '0:02:03.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+          <t>('0:00:23.080000', '0:00:29.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=109.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:21.420000', '0:01:30.040000')]</t>
+          <t>('0:00:02.560000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
